--- a/Suministro.xlsx
+++ b/Suministro.xlsx
@@ -14,59 +14,374 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="126">
   <si>
     <t>Tren InterUrbano Mexico Toluca</t>
   </si>
   <si>
+    <t>SMC</t>
+  </si>
+  <si>
+    <t>Registros de Entrada de Fabricantes de Acero</t>
+  </si>
+  <si>
+    <t>Folio</t>
+  </si>
+  <si>
+    <t>Fabricante de Acero</t>
+  </si>
+  <si>
+    <t>Taller de Habilitado</t>
+  </si>
+  <si>
+    <t>Num. de Orden</t>
+  </si>
+  <si>
+    <t>Remision</t>
+  </si>
+  <si>
+    <t>Varilla</t>
+  </si>
+  <si>
+    <t>Piezas</t>
+  </si>
+  <si>
+    <t>Longitud Mts</t>
+  </si>
+  <si>
+    <t>Fecha de Remision</t>
+  </si>
+  <si>
+    <t>Peso Recibido en Kg</t>
+  </si>
+  <si>
+    <t>RMH-0001</t>
+  </si>
+  <si>
     <t>DEACERO</t>
   </si>
   <si>
-    <t>Registros de Entrada de Fabricantes de Acero</t>
-  </si>
-  <si>
-    <t>Folio</t>
-  </si>
-  <si>
-    <t>Taller de Habilitado</t>
-  </si>
-  <si>
-    <t>Num. de Orden</t>
-  </si>
-  <si>
-    <t>Remision</t>
-  </si>
-  <si>
-    <t>Varilla</t>
-  </si>
-  <si>
-    <t>Piezas</t>
-  </si>
-  <si>
-    <t>Longitud Mts</t>
-  </si>
-  <si>
-    <t>Fecha de Remision</t>
-  </si>
-  <si>
-    <t>Peso Recibido en Kg</t>
-  </si>
-  <si>
-    <t>RMH-0008</t>
-  </si>
-  <si>
-    <t>Taller X de FONTANA</t>
+    <t>Taller 3 de SMC</t>
+  </si>
+  <si>
+    <t>Varilla #3</t>
+  </si>
+  <si>
+    <t>24/06/2016</t>
   </si>
   <si>
     <t>Varilla #4</t>
   </si>
   <si>
-    <t>22/06/2016</t>
+    <t>Varilla #5</t>
+  </si>
+  <si>
+    <t>RMH-0002</t>
+  </si>
+  <si>
+    <t>LA PENINSULAR</t>
+  </si>
+  <si>
+    <t>Varilla #8</t>
+  </si>
+  <si>
+    <t>Varilla #12</t>
+  </si>
+  <si>
+    <t>RMH-0003</t>
+  </si>
+  <si>
+    <t>RMH-0004</t>
+  </si>
+  <si>
+    <t>RMH-0005</t>
+  </si>
+  <si>
+    <t>RMH-0006</t>
+  </si>
+  <si>
+    <t>27/06/2016</t>
+  </si>
+  <si>
+    <t>Varilla #6</t>
+  </si>
+  <si>
+    <t>TALLER DE SMC</t>
+  </si>
+  <si>
+    <t>Varilla #9</t>
+  </si>
+  <si>
+    <t>Varilla #10</t>
+  </si>
+  <si>
+    <t>Registros de Salida de Acero Habilitado</t>
+  </si>
+  <si>
+    <t>Fecha de Envio</t>
+  </si>
+  <si>
+    <t>Frente</t>
+  </si>
+  <si>
+    <t>Apoyo</t>
+  </si>
+  <si>
+    <t>Elemento</t>
+  </si>
+  <si>
+    <t>Peso de Habilitado en Kg</t>
+  </si>
+  <si>
+    <t>SMH-0003</t>
+  </si>
+  <si>
+    <t>Viaducto 1A</t>
+  </si>
+  <si>
+    <t>1A-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pila IV</t>
+  </si>
+  <si>
+    <t>SMH-0033</t>
+  </si>
+  <si>
+    <t>Viaducto 1E</t>
+  </si>
+  <si>
+    <t>1E-6</t>
+  </si>
+  <si>
+    <t>Diafragma</t>
+  </si>
+  <si>
+    <t>SMH-0034</t>
+  </si>
+  <si>
+    <t>1E-14A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Capitel I</t>
+  </si>
+  <si>
+    <t>SMH-0001</t>
+  </si>
+  <si>
+    <t>1A-2</t>
+  </si>
+  <si>
+    <t>SMH-0002</t>
+  </si>
+  <si>
+    <t>Estacion Zinacantepec</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>SMH-0022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pila II</t>
+  </si>
+  <si>
+    <t>SMH-0004</t>
+  </si>
+  <si>
+    <t>1A-6</t>
+  </si>
+  <si>
+    <t>SMH-0005</t>
+  </si>
+  <si>
+    <t>1A-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zapata I</t>
+  </si>
+  <si>
+    <t>SMH-0006</t>
+  </si>
+  <si>
+    <t>Viaducto 3</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pilas I</t>
+  </si>
+  <si>
+    <t>SMH-0007</t>
+  </si>
+  <si>
+    <t>1A-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Columnas I</t>
+  </si>
+  <si>
+    <t>SMH-0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pila III</t>
+  </si>
+  <si>
+    <t>SMH-0035</t>
+  </si>
+  <si>
+    <t>SMH-0036</t>
+  </si>
+  <si>
+    <t>SMH-0037</t>
+  </si>
+  <si>
+    <t>SMH-0038</t>
+  </si>
+  <si>
+    <t>SMH-0039</t>
+  </si>
+  <si>
+    <t>SMH-0040</t>
+  </si>
+  <si>
+    <t>SMH-0041</t>
+  </si>
+  <si>
+    <t>SMH-0042</t>
+  </si>
+  <si>
+    <t>SMH-0043</t>
+  </si>
+  <si>
+    <t>SMH-0044</t>
+  </si>
+  <si>
+    <t>SMH-0045</t>
+  </si>
+  <si>
+    <t>SMH-0046</t>
+  </si>
+  <si>
+    <t>1E-75D</t>
+  </si>
+  <si>
+    <t>SMH-0047</t>
+  </si>
+  <si>
+    <t>SMH-0048</t>
+  </si>
+  <si>
+    <t>1E-32</t>
+  </si>
+  <si>
+    <t>Loza</t>
+  </si>
+  <si>
+    <t>SMH-0049</t>
+  </si>
+  <si>
+    <t>SMH-0009</t>
+  </si>
+  <si>
+    <t>SMH-0010</t>
+  </si>
+  <si>
+    <t>1A-1</t>
+  </si>
+  <si>
+    <t>SMH-0011</t>
+  </si>
+  <si>
+    <t>SMH-0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pila V</t>
+  </si>
+  <si>
+    <t>SMH-0013</t>
+  </si>
+  <si>
+    <t>SMH-0014</t>
+  </si>
+  <si>
+    <t>SMH-0015</t>
+  </si>
+  <si>
+    <t>SMH-0016</t>
+  </si>
+  <si>
+    <t>SMH-0017</t>
+  </si>
+  <si>
+    <t>SMH-0018</t>
+  </si>
+  <si>
+    <t>SMH-0019</t>
+  </si>
+  <si>
+    <t>SMH-0020</t>
+  </si>
+  <si>
+    <t>SMH-0021</t>
+  </si>
+  <si>
+    <t>SMH-0023</t>
+  </si>
+  <si>
+    <t>SMH-0024</t>
+  </si>
+  <si>
+    <t>SMH-0025</t>
+  </si>
+  <si>
+    <t>SMH-0026</t>
+  </si>
+  <si>
+    <t>1E-33</t>
+  </si>
+  <si>
+    <t>SMH-0027</t>
+  </si>
+  <si>
+    <t>SMH-0028</t>
+  </si>
+  <si>
+    <t>1E-39</t>
+  </si>
+  <si>
+    <t>SMH-0029</t>
+  </si>
+  <si>
+    <t>1E-64</t>
+  </si>
+  <si>
+    <t>SMH-0030</t>
+  </si>
+  <si>
+    <t>1E-40</t>
+  </si>
+  <si>
+    <t>SMH-0031</t>
+  </si>
+  <si>
+    <t>1E-30</t>
+  </si>
+  <si>
+    <t>SMH-0032</t>
+  </si>
+  <si>
+    <t>1E-2</t>
   </si>
   <si>
     <t>Pesos Totales por Varilla</t>
   </si>
   <si>
+    <t>Pesos Totales de Varilla Habilitada</t>
+  </si>
+  <si>
     <t>Peso Total en Kg</t>
   </si>
   <si>
@@ -74,6 +389,9 @@
   </si>
   <si>
     <t>Kg</t>
+  </si>
+  <si>
+    <t>Peso Total de Habilitado</t>
   </si>
 </sst>
 </file>
@@ -474,16 +792,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="9" width="20.7109375" customWidth="1"/>
+    <col min="1" max="10" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,8 +813,9 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -508,8 +827,9 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -521,8 +841,9 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -550,75 +871,2368 @@
       <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>1232</v>
+      </c>
+      <c r="E5">
+        <v>222</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>3721</v>
+      </c>
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>1232</v>
+      </c>
+      <c r="E6">
+        <v>222</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>3767</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>1232</v>
+      </c>
+      <c r="E7">
+        <v>222</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>1071</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>123</v>
+      </c>
+      <c r="E8">
+        <v>2222</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>1925</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>123</v>
+      </c>
+      <c r="E9">
+        <v>2222</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>123</v>
+      </c>
+      <c r="E10">
+        <v>2222</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>123</v>
+      </c>
+      <c r="E11">
+        <v>2222</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>1925</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>123</v>
+      </c>
+      <c r="E12">
+        <v>2222</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>80</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>123</v>
+      </c>
+      <c r="E13">
+        <v>2222</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>123</v>
+      </c>
+      <c r="E14">
+        <v>2222</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>1925</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>123</v>
+      </c>
+      <c r="E15">
+        <v>2222</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>123</v>
+      </c>
+      <c r="E16">
+        <v>2222</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>1024230</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>12233000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>1234</v>
+      </c>
+      <c r="E18">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>1790</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18">
+        <v>33420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>1234</v>
+      </c>
+      <c r="E19">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>3650</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19">
+        <v>98088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>123</v>
+      </c>
+      <c r="E20">
+        <v>222</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>1071</v>
+      </c>
+      <c r="H20">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>123</v>
+      </c>
+      <c r="E21">
+        <v>222</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21">
+        <v>496</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>123</v>
+      </c>
+      <c r="E22">
+        <v>222</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <v>535</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" t="s">
+        <v>94</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" t="s">
+        <v>94</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" t="s">
+        <v>94</v>
+      </c>
+      <c r="G73" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s">
+        <v>70</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" t="s">
+        <v>70</v>
+      </c>
+      <c r="G75" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" t="s">
+        <v>108</v>
+      </c>
+      <c r="F78" t="s">
+        <v>87</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" t="s">
+        <v>70</v>
+      </c>
+      <c r="G79" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" t="s">
+        <v>111</v>
+      </c>
+      <c r="F80" t="s">
+        <v>61</v>
+      </c>
+      <c r="G80" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" t="s">
+        <v>113</v>
+      </c>
+      <c r="F81" t="s">
+        <v>46</v>
+      </c>
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" t="s">
+        <v>115</v>
+      </c>
+      <c r="F82" t="s">
+        <v>87</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" t="s">
+        <v>117</v>
+      </c>
+      <c r="F83" t="s">
+        <v>94</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83">
+        <v>13098</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" t="s">
+        <v>119</v>
+      </c>
+      <c r="F84" t="s">
+        <v>87</v>
+      </c>
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>40</v>
+      </c>
+      <c r="E85" t="s">
+        <v>60</v>
+      </c>
+      <c r="F85" t="s">
+        <v>49</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F86" t="s">
+        <v>49</v>
+      </c>
+      <c r="G86" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" t="s">
+        <v>60</v>
+      </c>
+      <c r="F87" t="s">
+        <v>49</v>
+      </c>
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="E90" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D5">
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92">
+        <v>25000</v>
+      </c>
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93">
+        <v>12347000</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93">
+        <v>270628</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94">
+        <v>73420</v>
+      </c>
+      <c r="E94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94">
+        <v>35900</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95">
+        <v>98088</v>
+      </c>
+      <c r="E95" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>1200</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
+      <c r="F95">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96">
+        <v>9600</v>
+      </c>
+      <c r="E96" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97">
+        <v>30000</v>
+      </c>
+      <c r="E97" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98">
+        <v>40000</v>
+      </c>
+      <c r="E98" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101">
+        <v>12636008</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F101">
+        <v>393828</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A8:B8"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="E90:F90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
